--- a/mbs-perturbation/bloated/svm/bloated-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/bloated/svm/bloated-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2448979591836735</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3870967741935484</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8948833971458406</v>
+        <v>0.1890010442046641</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.7692307692307693</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.8695652173913044</v>
+        <v>0.8387096774193548</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.415158371040724</v>
+        <v>0.8190045248868778</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004895104895104884</v>
+        <v>0.4727272727272728</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8216783216783217</v>
+        <v>0.3248251748251748</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2489795918367347</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2513323983169705</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6273230389519983</v>
+        <v>0.5611116033287978</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/bloated-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/bloated/svm/bloated-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1890010442046641</v>
+        <v>0.06488391376451078</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8387096774193548</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8190045248868778</v>
+        <v>0.8222523744911806</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4727272727272728</v>
+        <v>0.9439167797376753</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3248251748251748</v>
+        <v>0.3945833333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444444444444444</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C7" t="n">
         <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.167741935483871</v>
+        <v>0.16</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5611116033287978</v>
+        <v>0.6451272802653399</v>
       </c>
     </row>
   </sheetData>
